--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Notch2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H2">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N2">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q2">
-        <v>69.19000487335265</v>
+        <v>2.335854803377778</v>
       </c>
       <c r="R2">
-        <v>622.710043860174</v>
+        <v>21.0226932304</v>
       </c>
       <c r="S2">
-        <v>0.00450169567158579</v>
+        <v>0.000194265861641181</v>
       </c>
       <c r="T2">
-        <v>0.00450169567158579</v>
+        <v>0.0001942658616411809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H3">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>82.514188</v>
       </c>
       <c r="O3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q3">
-        <v>69.11193103301733</v>
+        <v>54.68144643288044</v>
       </c>
       <c r="R3">
-        <v>622.007379297156</v>
+        <v>492.133017895924</v>
       </c>
       <c r="S3">
-        <v>0.00449661596867574</v>
+        <v>0.004547687763686562</v>
       </c>
       <c r="T3">
-        <v>0.00449661596867574</v>
+        <v>0.004547687763686562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H4">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N4">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q4">
-        <v>85.008707701212</v>
+        <v>78.25340496866134</v>
       </c>
       <c r="R4">
-        <v>765.078369310908</v>
+        <v>704.280644717952</v>
       </c>
       <c r="S4">
-        <v>0.005530904820806447</v>
+        <v>0.006508095075349019</v>
       </c>
       <c r="T4">
-        <v>0.005530904820806447</v>
+        <v>0.006508095075349018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H5">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I5">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J5">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N5">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q5">
-        <v>113.3988458265476</v>
+        <v>64.05970134755165</v>
       </c>
       <c r="R5">
-        <v>1020.589612438929</v>
+        <v>576.5373121279649</v>
       </c>
       <c r="S5">
-        <v>0.007378046790928892</v>
+        <v>0.005327648388402923</v>
       </c>
       <c r="T5">
-        <v>0.007378046790928892</v>
+        <v>0.005327648388402923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J6">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N6">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q6">
-        <v>2557.91052027173</v>
+        <v>109.1442508003556</v>
       </c>
       <c r="R6">
-        <v>23021.19468244557</v>
+        <v>982.2982572032</v>
       </c>
       <c r="S6">
-        <v>0.1664248288244562</v>
+        <v>0.009077191739080484</v>
       </c>
       <c r="T6">
-        <v>0.1664248288244562</v>
+        <v>0.009077191739080481</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J7">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>82.514188</v>
       </c>
       <c r="O7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q7">
         <v>2555.024179998777</v>
@@ -883,10 +883,10 @@
         <v>22995.21761998899</v>
       </c>
       <c r="S7">
-        <v>0.1662370354352628</v>
+        <v>0.2124935047862386</v>
       </c>
       <c r="T7">
-        <v>0.1662370354352628</v>
+        <v>0.2124935047862386</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>278.681984</v>
       </c>
       <c r="I8">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J8">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N8">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q8">
-        <v>3142.717913398784</v>
+        <v>3656.438424824491</v>
       </c>
       <c r="R8">
-        <v>28284.46122058906</v>
+        <v>32907.94582342042</v>
       </c>
       <c r="S8">
-        <v>0.2044740371627163</v>
+        <v>0.3040947408671497</v>
       </c>
       <c r="T8">
-        <v>0.2044740371627163</v>
+        <v>0.3040947408671497</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>278.681984</v>
       </c>
       <c r="I9">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J9">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N9">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q9">
-        <v>4192.283282207302</v>
+        <v>2993.228902739413</v>
       </c>
       <c r="R9">
-        <v>37730.54953986572</v>
+        <v>26939.06012465472</v>
       </c>
       <c r="S9">
-        <v>0.2727617022157844</v>
+        <v>0.2489376441716766</v>
       </c>
       <c r="T9">
-        <v>0.2727617022157844</v>
+        <v>0.2489376441716766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H10">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N10">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q10">
-        <v>486.8627128085872</v>
+        <v>27.89452111733334</v>
       </c>
       <c r="R10">
-        <v>4381.764415277285</v>
+        <v>251.050690056</v>
       </c>
       <c r="S10">
-        <v>0.03167665287665027</v>
+        <v>0.002319901550426322</v>
       </c>
       <c r="T10">
-        <v>0.03167665287665027</v>
+        <v>0.002319901550426322</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H11">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I11">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J11">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>82.514188</v>
       </c>
       <c r="O11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q11">
-        <v>486.3133380574997</v>
+        <v>652.9998183288734</v>
       </c>
       <c r="R11">
-        <v>4376.820042517496</v>
+        <v>5876.998364959861</v>
       </c>
       <c r="S11">
-        <v>0.03164090901532846</v>
+        <v>0.05430798702717005</v>
       </c>
       <c r="T11">
-        <v>0.03164090901532846</v>
+        <v>0.05430798702717007</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H12">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I12">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J12">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N12">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q12">
-        <v>598.1726713203922</v>
+        <v>934.4935542419202</v>
       </c>
       <c r="R12">
-        <v>5383.554041883529</v>
+        <v>8410.441988177281</v>
       </c>
       <c r="S12">
-        <v>0.03891879080327976</v>
+        <v>0.07771895549775565</v>
       </c>
       <c r="T12">
-        <v>0.03891879080327976</v>
+        <v>0.07771895549775565</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H13">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I13">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J13">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N13">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O13">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P13">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q13">
-        <v>797.9428504092905</v>
+        <v>764.993906909525</v>
       </c>
       <c r="R13">
-        <v>7181.485653683614</v>
+        <v>6884.945162185725</v>
       </c>
       <c r="S13">
-        <v>0.0519163986537565</v>
+        <v>0.06362219101167188</v>
       </c>
       <c r="T13">
-        <v>0.0519163986537565</v>
+        <v>0.06362219101167189</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H14">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I14">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J14">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N14">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O14">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P14">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q14">
-        <v>44.35024362855955</v>
+        <v>1.528828736355556</v>
       </c>
       <c r="R14">
-        <v>399.1521926570359</v>
+        <v>13.7594586272</v>
       </c>
       <c r="S14">
-        <v>0.002885551173784555</v>
+        <v>0.0001271479851146708</v>
       </c>
       <c r="T14">
-        <v>0.002885551173784554</v>
+        <v>0.0001271479851146708</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H15">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I15">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J15">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>82.514188</v>
       </c>
       <c r="O15">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P15">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q15">
-        <v>44.30019891695377</v>
+        <v>35.78928216393689</v>
       </c>
       <c r="R15">
-        <v>398.7017902525839</v>
+        <v>322.103539475432</v>
       </c>
       <c r="S15">
-        <v>0.002882295124561349</v>
+        <v>0.002976484551626517</v>
       </c>
       <c r="T15">
-        <v>0.002882295124561349</v>
+        <v>0.002976484551626517</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H16">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I16">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J16">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N16">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O16">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P16">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q16">
-        <v>54.489906511768</v>
+        <v>51.21724777617068</v>
       </c>
       <c r="R16">
-        <v>490.4091586059119</v>
+        <v>460.9552299855361</v>
       </c>
       <c r="S16">
-        <v>0.003545266064630851</v>
+        <v>0.004259581013228964</v>
       </c>
       <c r="T16">
-        <v>0.003545266064630851</v>
+        <v>0.004259581013228963</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H17">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I17">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J17">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N17">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O17">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P17">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q17">
-        <v>72.6877595804562</v>
+        <v>41.92739725126333</v>
       </c>
       <c r="R17">
-        <v>654.1898362241059</v>
+        <v>377.34657526137</v>
       </c>
       <c r="S17">
-        <v>0.004729269397791743</v>
+        <v>0.00348697270978082</v>
       </c>
       <c r="T17">
-        <v>0.004729269397791743</v>
+        <v>0.00348697270978082</v>
       </c>
     </row>
   </sheetData>
